--- a/results/pvalue_SIDER_rare_target_AUPRperdrug.xlsx
+++ b/results/pvalue_SIDER_rare_target_AUPRperdrug.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,12 +535,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>0.041</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.023</t>
+          <t>0.006</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7.334</t>
+          <t>6.355</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.407</t>
+          <t>2.983</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-27.531</t>
+          <t>-30.374</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-13.997</t>
+          <t>-14.819</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.965</t>
+          <t>0.016</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6.908</t>
+          <t>6.859</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.582</t>
+          <t>5.219</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-17.931</t>
+          <t>-10.684</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-11.017</t>
+          <t>-8.43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.046</t>
+          <t>3.979</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
